--- a/Modelos em Python/resultados_erros_lstm.xlsx
+++ b/Modelos em Python/resultados_erros_lstm.xlsx
@@ -477,16 +477,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>28.24514553878474</v>
+        <v>26.9464916652924</v>
       </c>
       <c r="D2" t="n">
-        <v>1.118041867986129</v>
+        <v>1.057110669237489</v>
       </c>
       <c r="E2" t="n">
-        <v>1.19528668288183</v>
+        <v>1.138596320246007</v>
       </c>
       <c r="F2" t="n">
-        <v>2.827565930388457</v>
+        <v>2.693459409947732</v>
       </c>
     </row>
     <row r="3">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>53.4123004297285</v>
+        <v>52.89685454779141</v>
       </c>
       <c r="D3" t="n">
-        <v>2.512880904314692</v>
+        <v>2.479535663172557</v>
       </c>
       <c r="E3" t="n">
-        <v>2.548191364628195</v>
+        <v>2.515399375155054</v>
       </c>
       <c r="F3" t="n">
-        <v>6.027992438902697</v>
+        <v>5.950419825109027</v>
       </c>
     </row>
     <row r="4">
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>54.77026866029364</v>
+        <v>54.64509723651292</v>
       </c>
       <c r="D4" t="n">
-        <v>2.601921860454063</v>
+        <v>2.593666124369082</v>
       </c>
       <c r="E4" t="n">
-        <v>2.636040287544751</v>
+        <v>2.627976450656768</v>
       </c>
       <c r="F4" t="n">
-        <v>6.235807538842812</v>
+        <v>6.216731754949949</v>
       </c>
     </row>
     <row r="5">
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>55.02055222735093</v>
+        <v>54.99227308962364</v>
       </c>
       <c r="D5" t="n">
-        <v>2.618515186039433</v>
+        <v>2.616659009112355</v>
       </c>
       <c r="E5" t="n">
-        <v>2.652420279537848</v>
+        <v>2.650672586064801</v>
       </c>
       <c r="F5" t="n">
-        <v>6.274555989706542</v>
+        <v>6.270421652235939</v>
       </c>
     </row>
     <row r="6">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24.06402383648357</v>
+        <v>22.78584368889937</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9499821018088948</v>
+        <v>0.8908172757336588</v>
       </c>
       <c r="E6" t="n">
-        <v>1.069463275492669</v>
+        <v>1.017738020910685</v>
       </c>
       <c r="F6" t="n">
-        <v>2.175305146264772</v>
+        <v>2.070095163778735</v>
       </c>
     </row>
     <row r="7">
@@ -597,16 +597,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>50.217845799829</v>
+        <v>49.6853344118645</v>
       </c>
       <c r="D7" t="n">
-        <v>2.383948676333283</v>
+        <v>2.349831320119627</v>
       </c>
       <c r="E7" t="n">
-        <v>2.433999718595711</v>
+        <v>2.400891496739835</v>
       </c>
       <c r="F7" t="n">
-        <v>4.950793762814488</v>
+        <v>4.883451118109288</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>51.61766707427338</v>
+        <v>51.48422325552791</v>
       </c>
       <c r="D8" t="n">
-        <v>2.474993647047968</v>
+        <v>2.466315060492718</v>
       </c>
       <c r="E8" t="n">
-        <v>2.523236267090789</v>
+        <v>2.515017643449494</v>
       </c>
       <c r="F8" t="n">
-        <v>5.132302307917943</v>
+        <v>5.115585497989255</v>
       </c>
     </row>
     <row r="9">
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>51.87294401152551</v>
+        <v>51.83818901565934</v>
       </c>
       <c r="D9" t="n">
-        <v>2.491782943227074</v>
+        <v>2.489569413120096</v>
       </c>
       <c r="E9" t="n">
-        <v>2.539706006877508</v>
+        <v>2.537827194410691</v>
       </c>
       <c r="F9" t="n">
-        <v>5.165802018040468</v>
+        <v>5.161980483891902</v>
       </c>
     </row>
     <row r="10">
@@ -669,16 +669,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21.3227338324916</v>
+        <v>20.18103676662097</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8343529606436854</v>
+        <v>0.7837186918019731</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8980578633234128</v>
+        <v>0.8514905754154591</v>
       </c>
       <c r="F10" t="n">
-        <v>2.704429338576773</v>
+        <v>2.56419568016843</v>
       </c>
     </row>
     <row r="11">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>51.05655574137354</v>
+        <v>50.49603144128314</v>
       </c>
       <c r="D11" t="n">
-        <v>2.427880442869689</v>
+        <v>2.392036677835294</v>
       </c>
       <c r="E11" t="n">
-        <v>2.450516188699637</v>
+        <v>2.415189076520853</v>
       </c>
       <c r="F11" t="n">
-        <v>7.379533263983011</v>
+        <v>7.273148494665436</v>
       </c>
     </row>
     <row r="12">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>52.58626828127071</v>
+        <v>52.44995517608768</v>
       </c>
       <c r="D12" t="n">
-        <v>2.527274524334469</v>
+        <v>2.518403274431208</v>
       </c>
       <c r="E12" t="n">
-        <v>2.549028339210078</v>
+        <v>2.540410715708396</v>
       </c>
       <c r="F12" t="n">
-        <v>7.676194716354017</v>
+        <v>7.650243433281331</v>
       </c>
     </row>
     <row r="13">
@@ -741,16 +741,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>52.85364240552768</v>
+        <v>52.82057173350066</v>
       </c>
       <c r="D13" t="n">
-        <v>2.544859758259684</v>
+        <v>2.542751461721973</v>
       </c>
       <c r="E13" t="n">
-        <v>2.566464575465665</v>
+        <v>2.564551814053901</v>
       </c>
       <c r="F13" t="n">
-        <v>7.728702545537161</v>
+        <v>7.722942417720311</v>
       </c>
     </row>
     <row r="14">
@@ -765,16 +765,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>25.72709716967191</v>
+        <v>24.47072346435098</v>
       </c>
       <c r="D14" t="n">
-        <v>1.013445159669228</v>
+        <v>0.9553974573915643</v>
       </c>
       <c r="E14" t="n">
-        <v>1.103059029488908</v>
+        <v>1.050135020732959</v>
       </c>
       <c r="F14" t="n">
-        <v>2.521611345428632</v>
+        <v>2.400626178400536</v>
       </c>
     </row>
     <row r="15">
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>52.10545937043121</v>
+        <v>51.58456983774288</v>
       </c>
       <c r="D15" t="n">
-        <v>2.461128950843734</v>
+        <v>2.427588178148123</v>
       </c>
       <c r="E15" t="n">
-        <v>2.499648075539375</v>
+        <v>2.466729359565367</v>
       </c>
       <c r="F15" t="n">
-        <v>5.714237206126165</v>
+        <v>5.638984472176411</v>
       </c>
     </row>
     <row r="16">
@@ -813,16 +813,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>53.51000428728901</v>
+        <v>53.38915168820341</v>
       </c>
       <c r="D16" t="n">
-        <v>2.552871558642623</v>
+        <v>2.544950221431404</v>
       </c>
       <c r="E16" t="n">
-        <v>2.590043412648948</v>
+        <v>2.582336753218866</v>
       </c>
       <c r="F16" t="n">
-        <v>5.920882454961995</v>
+        <v>5.903264902922869</v>
       </c>
     </row>
     <row r="17">
@@ -837,16 +837,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>53.7651534213139</v>
+        <v>53.74307194157476</v>
       </c>
       <c r="D17" t="n">
-        <v>2.56972676849093</v>
+        <v>2.568307824668111</v>
       </c>
       <c r="E17" t="n">
-        <v>2.606659923895361</v>
+        <v>2.605362484671343</v>
       </c>
       <c r="F17" t="n">
-        <v>5.958868076909908</v>
+        <v>5.955902109196645</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_lstm.xlsx
+++ b/Modelos em Python/resultados_erros_lstm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,11 +456,6 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>RRMSE</t>
         </is>
       </c>
@@ -477,16 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26.9464916652924</v>
+        <v>25.4877475736787</v>
       </c>
       <c r="D2" t="n">
-        <v>1.057110669237489</v>
+        <v>0.9897205104893295</v>
       </c>
       <c r="E2" t="n">
-        <v>1.138596320246007</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2.693459409947732</v>
+        <v>2.545952670855227</v>
       </c>
     </row>
     <row r="3">
@@ -501,16 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>52.89685454779141</v>
+        <v>35.8411946317205</v>
       </c>
       <c r="D3" t="n">
-        <v>2.479535663172557</v>
+        <v>1.493858791161835</v>
       </c>
       <c r="E3" t="n">
-        <v>2.515399375155054</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5.950419825109027</v>
+        <v>3.672671992567216</v>
       </c>
     </row>
     <row r="4">
@@ -525,16 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>54.64509723651292</v>
+        <v>36.24652888027116</v>
       </c>
       <c r="D4" t="n">
-        <v>2.593666124369082</v>
+        <v>1.51489578400499</v>
       </c>
       <c r="E4" t="n">
-        <v>2.627976450656768</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6.216731754949949</v>
+        <v>3.720578690131481</v>
       </c>
     </row>
     <row r="5">
@@ -549,16 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>54.99227308962364</v>
+        <v>35.381392078134</v>
       </c>
       <c r="D5" t="n">
-        <v>2.616659009112355</v>
+        <v>1.470120301124057</v>
       </c>
       <c r="E5" t="n">
-        <v>2.650672586064801</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.270421652235939</v>
+        <v>3.618666365927653</v>
       </c>
     </row>
     <row r="6">
@@ -573,16 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22.78584368889937</v>
+        <v>21.61414630009181</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8908172757336588</v>
+        <v>0.83725625872612</v>
       </c>
       <c r="E6" t="n">
-        <v>1.017738020910685</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.070095163778735</v>
+        <v>1.974855957017208</v>
       </c>
     </row>
     <row r="7">
@@ -597,16 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>49.6853344118645</v>
+        <v>32.56421328510213</v>
       </c>
       <c r="D7" t="n">
-        <v>2.349831320119627</v>
+        <v>1.366733677278865</v>
       </c>
       <c r="E7" t="n">
-        <v>2.400891496739835</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4.883451118109288</v>
+        <v>2.954310545494573</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>51.48422325552791</v>
+        <v>32.9879932740648</v>
       </c>
       <c r="D8" t="n">
-        <v>2.466315060492718</v>
+        <v>1.388625362244519</v>
       </c>
       <c r="E8" t="n">
-        <v>2.515017643449494</v>
-      </c>
-      <c r="F8" t="n">
-        <v>5.115585497989255</v>
+        <v>2.996243702747152</v>
       </c>
     </row>
     <row r="9">
@@ -645,16 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>51.83818901565934</v>
+        <v>32.11992896302785</v>
       </c>
       <c r="D9" t="n">
-        <v>2.489569413120096</v>
+        <v>1.343901441133384</v>
       </c>
       <c r="E9" t="n">
-        <v>2.537827194410691</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5.161980483891902</v>
+        <v>2.910644818273257</v>
       </c>
     </row>
     <row r="10">
@@ -669,16 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20.18103676662097</v>
+        <v>19.95421549525619</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7837186918019731</v>
+        <v>0.7736816872438835</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8514905754154591</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.56419568016843</v>
+        <v>2.535491724333861</v>
       </c>
     </row>
     <row r="11">
@@ -693,16 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>50.49603144128314</v>
+        <v>33.45083755550368</v>
       </c>
       <c r="D11" t="n">
-        <v>2.392036677835294</v>
+        <v>1.41550554000734</v>
       </c>
       <c r="E11" t="n">
-        <v>2.415189076520853</v>
-      </c>
-      <c r="F11" t="n">
-        <v>7.273148494665436</v>
+        <v>4.378475354088605</v>
       </c>
     </row>
     <row r="12">
@@ -717,16 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>52.44995517608768</v>
+        <v>33.94193647992519</v>
       </c>
       <c r="D12" t="n">
-        <v>2.518403274431208</v>
+        <v>1.440829912691594</v>
       </c>
       <c r="E12" t="n">
-        <v>2.540410715708396</v>
-      </c>
-      <c r="F12" t="n">
-        <v>7.650243433281331</v>
+        <v>4.452754177464343</v>
       </c>
     </row>
     <row r="13">
@@ -741,16 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>52.82057173350066</v>
+        <v>33.07679419609209</v>
       </c>
       <c r="D13" t="n">
-        <v>2.542751461721973</v>
+        <v>1.396317475631606</v>
       </c>
       <c r="E13" t="n">
-        <v>2.564551814053901</v>
-      </c>
-      <c r="F13" t="n">
-        <v>7.722942417720311</v>
+        <v>4.322238345950616</v>
       </c>
     </row>
     <row r="14">
@@ -765,16 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>24.47072346435098</v>
+        <v>23.38253563107296</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9553974573915643</v>
+        <v>0.9057389478899888</v>
       </c>
       <c r="E14" t="n">
-        <v>1.050135020732959</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2.400626178400536</v>
+        <v>2.298196923294924</v>
       </c>
     </row>
     <row r="15">
@@ -789,16 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>51.58456983774288</v>
+        <v>34.51581890074931</v>
       </c>
       <c r="D15" t="n">
-        <v>2.427588178148123</v>
+        <v>1.444381315197276</v>
       </c>
       <c r="E15" t="n">
-        <v>2.466729359565367</v>
-      </c>
-      <c r="F15" t="n">
-        <v>5.638984472176411</v>
+        <v>3.449966971102696</v>
       </c>
     </row>
     <row r="16">
@@ -813,16 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>53.38915168820341</v>
+        <v>34.94418217987104</v>
       </c>
       <c r="D16" t="n">
-        <v>2.544950221431404</v>
+        <v>1.466562595970327</v>
       </c>
       <c r="E16" t="n">
-        <v>2.582336753218866</v>
-      </c>
-      <c r="F16" t="n">
-        <v>5.903264902922869</v>
+        <v>3.498554505909218</v>
       </c>
     </row>
     <row r="17">
@@ -837,16 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>53.74307194157476</v>
+        <v>34.07839400451786</v>
       </c>
       <c r="D17" t="n">
-        <v>2.568307824668111</v>
+        <v>1.421851266764264</v>
       </c>
       <c r="E17" t="n">
-        <v>2.605362484671343</v>
-      </c>
-      <c r="F17" t="n">
-        <v>5.955902109196645</v>
+        <v>3.400735239329275</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_lstm.xlsx
+++ b/Modelos em Python/resultados_erros_lstm.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25.4877475736787</v>
+        <v>24.94863801797864</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9897205104893295</v>
+        <v>0.9651065023123611</v>
       </c>
       <c r="E2" t="n">
-        <v>2.545952670855227</v>
+        <v>2.49247389724438</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35.8411946317205</v>
+        <v>34.8895204040295</v>
       </c>
       <c r="D3" t="n">
-        <v>1.493858791161835</v>
+        <v>1.444872128308041</v>
       </c>
       <c r="E3" t="n">
-        <v>3.672671992567216</v>
+        <v>3.561288029494551</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36.24652888027116</v>
+        <v>35.2634725535239</v>
       </c>
       <c r="D4" t="n">
-        <v>1.51489578400499</v>
+        <v>1.464052819764174</v>
       </c>
       <c r="E4" t="n">
-        <v>3.720578690131481</v>
+        <v>3.604857491604506</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35.381392078134</v>
+        <v>34.50081300722302</v>
       </c>
       <c r="D5" t="n">
-        <v>1.470120301124057</v>
+        <v>1.425026523605964</v>
       </c>
       <c r="E5" t="n">
-        <v>3.618666365927653</v>
+        <v>3.516251748424382</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21.61414630009181</v>
+        <v>21.11233038907459</v>
       </c>
       <c r="D6" t="n">
-        <v>0.83725625872612</v>
+        <v>0.8145524463870308</v>
       </c>
       <c r="E6" t="n">
-        <v>1.974855957017208</v>
+        <v>1.935236596401529</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>32.56421328510213</v>
+        <v>31.60755507465338</v>
       </c>
       <c r="D7" t="n">
-        <v>1.366733677278865</v>
+        <v>1.317724306475032</v>
       </c>
       <c r="E7" t="n">
-        <v>2.954310545494573</v>
+        <v>2.860788652109199</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32.9879932740648</v>
+        <v>32.00111233850212</v>
       </c>
       <c r="D8" t="n">
-        <v>1.388625362244519</v>
+        <v>1.337820149009878</v>
       </c>
       <c r="E8" t="n">
-        <v>2.996243702747152</v>
+        <v>2.899126488749167</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>32.11992896302785</v>
+        <v>31.23443389334193</v>
       </c>
       <c r="D9" t="n">
-        <v>1.343901441133384</v>
+        <v>1.298759436426741</v>
       </c>
       <c r="E9" t="n">
-        <v>2.910644818273257</v>
+        <v>2.824690586980631</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19.95421549525619</v>
+        <v>19.60062208349791</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7736816872438835</v>
+        <v>0.7581597651012064</v>
       </c>
       <c r="E10" t="n">
-        <v>2.535491724333861</v>
+        <v>2.492577537604795</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>33.45083755550368</v>
+        <v>32.48983646324855</v>
       </c>
       <c r="D11" t="n">
-        <v>1.41550554000734</v>
+        <v>1.366379694091988</v>
       </c>
       <c r="E11" t="n">
-        <v>4.378475354088605</v>
+        <v>4.234552916560197</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>33.94193647992519</v>
+        <v>32.95701914031142</v>
       </c>
       <c r="D12" t="n">
-        <v>1.440829912691594</v>
+        <v>1.39019113727125</v>
       </c>
       <c r="E12" t="n">
-        <v>4.452754177464343</v>
+        <v>4.304270098911035</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>33.07679419609209</v>
+        <v>32.18724659988996</v>
       </c>
       <c r="D13" t="n">
-        <v>1.396317475631606</v>
+        <v>1.351028626131336</v>
       </c>
       <c r="E13" t="n">
-        <v>4.322238345950616</v>
+        <v>4.189656890632167</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>23.38253563107296</v>
+        <v>22.89398489637491</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9057389478899888</v>
+        <v>0.883658377648158</v>
       </c>
       <c r="E14" t="n">
-        <v>2.298196923294924</v>
+        <v>2.252897205189726</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>34.51581890074931</v>
+        <v>33.5601868258004</v>
       </c>
       <c r="D15" t="n">
-        <v>1.444381315197276</v>
+        <v>1.395312550583783</v>
       </c>
       <c r="E15" t="n">
-        <v>3.449966971102696</v>
+        <v>3.342768919032888</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>34.94418217987104</v>
+        <v>33.95907446267422</v>
       </c>
       <c r="D16" t="n">
-        <v>1.466562595970327</v>
+        <v>1.415726792057823</v>
       </c>
       <c r="E16" t="n">
-        <v>3.498554505909218</v>
+        <v>3.387361833678548</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>34.07839400451786</v>
+        <v>33.19395971772333</v>
       </c>
       <c r="D17" t="n">
-        <v>1.421851266764264</v>
+        <v>1.3766583572625</v>
       </c>
       <c r="E17" t="n">
-        <v>3.400735239329275</v>
+        <v>3.302138811689586</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_lstm.xlsx
+++ b/Modelos em Python/resultados_erros_lstm.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24.94863801797864</v>
+        <v>10.63058885217525</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9651065023123611</v>
+        <v>13.48068768332301</v>
       </c>
       <c r="E2" t="n">
-        <v>2.49247389724438</v>
+        <v>1.005251560252872</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34.8895204040295</v>
+        <v>10.63058885217525</v>
       </c>
       <c r="D3" t="n">
-        <v>1.444872128308041</v>
+        <v>13.48068768332301</v>
       </c>
       <c r="E3" t="n">
-        <v>3.561288029494551</v>
+        <v>1.005251560252872</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35.2634725535239</v>
+        <v>10.63058885217525</v>
       </c>
       <c r="D4" t="n">
-        <v>1.464052819764174</v>
+        <v>13.48068768332301</v>
       </c>
       <c r="E4" t="n">
-        <v>3.604857491604506</v>
+        <v>1.005251560252872</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34.50081300722302</v>
+        <v>10.63058885217525</v>
       </c>
       <c r="D5" t="n">
-        <v>1.425026523605964</v>
+        <v>13.48068768332301</v>
       </c>
       <c r="E5" t="n">
-        <v>3.516251748424382</v>
+        <v>1.005251560252872</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21.11233038907459</v>
+        <v>57.98267150338548</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8145524463870308</v>
+        <v>55.89140921283511</v>
       </c>
       <c r="E6" t="n">
-        <v>1.935236596401529</v>
+        <v>1.000464616563512</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>31.60755507465338</v>
+        <v>57.98267150338548</v>
       </c>
       <c r="D7" t="n">
-        <v>1.317724306475032</v>
+        <v>55.89140921283511</v>
       </c>
       <c r="E7" t="n">
-        <v>2.860788652109199</v>
+        <v>1.000464616563512</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32.00111233850212</v>
+        <v>57.98267150338548</v>
       </c>
       <c r="D8" t="n">
-        <v>1.337820149009878</v>
+        <v>55.89140921283511</v>
       </c>
       <c r="E8" t="n">
-        <v>2.899126488749167</v>
+        <v>1.000464616563512</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>31.23443389334193</v>
+        <v>57.98267150338548</v>
       </c>
       <c r="D9" t="n">
-        <v>1.298759436426741</v>
+        <v>55.89140921283511</v>
       </c>
       <c r="E9" t="n">
-        <v>2.824690586980631</v>
+        <v>1.000464616563512</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19.60062208349791</v>
+        <v>7.512096432423167</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7581597651012064</v>
+        <v>10.20389101361373</v>
       </c>
       <c r="E10" t="n">
-        <v>2.492577537604795</v>
+        <v>1.133732131368599</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>32.48983646324855</v>
+        <v>7.512096432423167</v>
       </c>
       <c r="D11" t="n">
-        <v>1.366379694091988</v>
+        <v>10.20389101361373</v>
       </c>
       <c r="E11" t="n">
-        <v>4.234552916560197</v>
+        <v>1.133732131368599</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>32.95701914031142</v>
+        <v>7.512096432423167</v>
       </c>
       <c r="D12" t="n">
-        <v>1.39019113727125</v>
+        <v>10.20389101361373</v>
       </c>
       <c r="E12" t="n">
-        <v>4.304270098911035</v>
+        <v>1.133732131368599</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>32.18724659988996</v>
+        <v>7.512096432423167</v>
       </c>
       <c r="D13" t="n">
-        <v>1.351028626131336</v>
+        <v>10.20389101361373</v>
       </c>
       <c r="E13" t="n">
-        <v>4.189656890632167</v>
+        <v>1.133732131368599</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22.89398489637491</v>
+        <v>24.41669603377643</v>
       </c>
       <c r="D14" t="n">
-        <v>0.883658377648158</v>
+        <v>25.76061857216986</v>
       </c>
       <c r="E14" t="n">
-        <v>2.252897205189726</v>
+        <v>1.001768940044918</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>33.5601868258004</v>
+        <v>24.41669603377643</v>
       </c>
       <c r="D15" t="n">
-        <v>1.395312550583783</v>
+        <v>25.76061857216986</v>
       </c>
       <c r="E15" t="n">
-        <v>3.342768919032888</v>
+        <v>1.001768940044918</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>33.95907446267422</v>
+        <v>24.41669603377643</v>
       </c>
       <c r="D16" t="n">
-        <v>1.415726792057823</v>
+        <v>25.76061857216986</v>
       </c>
       <c r="E16" t="n">
-        <v>3.387361833678548</v>
+        <v>1.001768940044918</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>33.19395971772333</v>
+        <v>24.41669603377643</v>
       </c>
       <c r="D17" t="n">
-        <v>1.3766583572625</v>
+        <v>25.76061857216986</v>
       </c>
       <c r="E17" t="n">
-        <v>3.302138811689586</v>
+        <v>1.001768940044918</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_lstm.xlsx
+++ b/Modelos em Python/resultados_erros_lstm.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10.63058885217525</v>
+        <v>26.6516699886931</v>
       </c>
       <c r="D2" t="n">
-        <v>13.48068768332301</v>
+        <v>1.043383853729094</v>
       </c>
       <c r="E2" t="n">
-        <v>1.005251560252872</v>
+        <v>2.663219041760883</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10.63058885217525</v>
+        <v>38.45778081701756</v>
       </c>
       <c r="D3" t="n">
-        <v>13.48068768332301</v>
+        <v>1.631529048319477</v>
       </c>
       <c r="E3" t="n">
-        <v>1.005251560252872</v>
+        <v>3.987108177600586</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10.63058885217525</v>
+        <v>39.97344949974695</v>
       </c>
       <c r="D4" t="n">
-        <v>13.48068768332301</v>
+        <v>1.71333757413924</v>
       </c>
       <c r="E4" t="n">
-        <v>1.005251560252872</v>
+        <v>4.174732703882998</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10.63058885217525</v>
+        <v>39.79471459399185</v>
       </c>
       <c r="D5" t="n">
-        <v>13.48068768332301</v>
+        <v>1.703609784184163</v>
       </c>
       <c r="E5" t="n">
-        <v>1.005251560252872</v>
+        <v>4.152395612585717</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>57.98267150338548</v>
+        <v>22.84009289712647</v>
       </c>
       <c r="D6" t="n">
-        <v>55.89140921283511</v>
+        <v>0.8932696290088422</v>
       </c>
       <c r="E6" t="n">
-        <v>1.000464616563512</v>
+        <v>2.073798315754785</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>57.98267150338548</v>
+        <v>35.17473166715875</v>
       </c>
       <c r="D7" t="n">
-        <v>55.89140921283511</v>
+        <v>1.503381799025969</v>
       </c>
       <c r="E7" t="n">
-        <v>1.000464616563512</v>
+        <v>3.217124808696109</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>57.98267150338548</v>
+        <v>36.72731104536143</v>
       </c>
       <c r="D8" t="n">
-        <v>55.89140921283511</v>
+        <v>1.586731892462933</v>
       </c>
       <c r="E8" t="n">
-        <v>1.000464616563512</v>
+        <v>3.378673497146041</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>57.98267150338548</v>
+        <v>36.55186000599842</v>
       </c>
       <c r="D9" t="n">
-        <v>55.89140921283511</v>
+        <v>1.57723308819713</v>
       </c>
       <c r="E9" t="n">
-        <v>1.000464616563512</v>
+        <v>3.360221909873363</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7.512096432423167</v>
+        <v>21.44522622506259</v>
       </c>
       <c r="D10" t="n">
-        <v>10.20389101361373</v>
+        <v>0.8398096201726295</v>
       </c>
       <c r="E10" t="n">
-        <v>1.133732131368599</v>
+        <v>2.719568976454646</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.512096432423167</v>
+        <v>35.99746185177261</v>
       </c>
       <c r="D11" t="n">
-        <v>10.20389101361373</v>
+        <v>1.548472301502893</v>
       </c>
       <c r="E11" t="n">
-        <v>1.133732131368599</v>
+        <v>4.769103809708724</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7.512096432423167</v>
+        <v>37.6696227495044</v>
       </c>
       <c r="D12" t="n">
-        <v>10.20389101361373</v>
+        <v>1.638054810188435</v>
       </c>
       <c r="E12" t="n">
-        <v>1.133732131368599</v>
+        <v>5.033192284490213</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7.512096432423167</v>
+        <v>37.51132999249464</v>
       </c>
       <c r="D13" t="n">
-        <v>10.20389101361373</v>
+        <v>1.629495449185631</v>
       </c>
       <c r="E13" t="n">
-        <v>1.133732131368599</v>
+        <v>5.007932378498651</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>24.41669603377643</v>
+        <v>24.62876475761799</v>
       </c>
       <c r="D14" t="n">
-        <v>25.76061857216986</v>
+        <v>0.9626226893592676</v>
       </c>
       <c r="E14" t="n">
-        <v>1.001768940044918</v>
+        <v>2.416095257377245</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>24.41669603377643</v>
+        <v>37.11477820167168</v>
       </c>
       <c r="D15" t="n">
-        <v>25.76061857216986</v>
+        <v>1.580750748043401</v>
       </c>
       <c r="E15" t="n">
-        <v>1.001768940044918</v>
+        <v>3.749364905373947</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>24.41669603377643</v>
+        <v>38.67341598712986</v>
       </c>
       <c r="D16" t="n">
-        <v>25.76061857216986</v>
+        <v>1.664648960396209</v>
       </c>
       <c r="E16" t="n">
-        <v>1.001768940044918</v>
+        <v>3.934584174167966</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>24.41669603377643</v>
+        <v>38.50001357034161</v>
       </c>
       <c r="D17" t="n">
-        <v>25.76061857216986</v>
+        <v>1.655235103301646</v>
       </c>
       <c r="E17" t="n">
-        <v>1.001768940044918</v>
+        <v>3.913777931690523</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_lstm.xlsx
+++ b/Modelos em Python/resultados_erros_lstm.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -472,19 +472,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26.6516699886931</v>
+        <v>78.82477576642999</v>
       </c>
       <c r="D2" t="n">
-        <v>1.043383853729094</v>
+        <v>4.448745741650517</v>
       </c>
       <c r="E2" t="n">
-        <v>2.663219041760883</v>
+        <v>6.580250101169226</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>168 horas à frente</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -493,19 +493,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38.45778081701756</v>
+        <v>78.838764505471</v>
       </c>
       <c r="D3" t="n">
-        <v>1.631529048319477</v>
+        <v>4.450074203169642</v>
       </c>
       <c r="E3" t="n">
-        <v>3.987108177600586</v>
+        <v>6.582169690696537</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>336 horas à frente</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -514,19 +514,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>39.97344949974695</v>
+        <v>78.838764505471</v>
       </c>
       <c r="D4" t="n">
-        <v>1.71333757413924</v>
+        <v>4.450074203169642</v>
       </c>
       <c r="E4" t="n">
-        <v>4.174732703882998</v>
+        <v>6.582169690696537</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>720 horas à frente</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -535,19 +535,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>39.79471459399185</v>
+        <v>78.838764505471</v>
       </c>
       <c r="D5" t="n">
-        <v>1.703609784184163</v>
+        <v>4.450074203169642</v>
       </c>
       <c r="E5" t="n">
-        <v>4.152395612585717</v>
+        <v>6.582169690696537</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -556,19 +556,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22.84009289712647</v>
+        <v>76.15150928182372</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8932696290088422</v>
+        <v>4.345935606459871</v>
       </c>
       <c r="E6" t="n">
-        <v>2.073798315754785</v>
+        <v>7.092963188650751</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>168 horas à frente</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>35.17473166715875</v>
+        <v>76.17570898651407</v>
       </c>
       <c r="D7" t="n">
-        <v>1.503381799025969</v>
+        <v>4.348201276493182</v>
       </c>
       <c r="E7" t="n">
-        <v>3.217124808696109</v>
+        <v>7.096587495301985</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>336 horas à frente</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -598,19 +598,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>36.72731104536143</v>
+        <v>76.17570898651407</v>
       </c>
       <c r="D8" t="n">
-        <v>1.586731892462933</v>
+        <v>4.348201276493182</v>
       </c>
       <c r="E8" t="n">
-        <v>3.378673497146041</v>
+        <v>7.096587495301985</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>720 horas à frente</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -619,19 +619,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>36.55186000599842</v>
+        <v>76.17570898651407</v>
       </c>
       <c r="D9" t="n">
-        <v>1.57723308819713</v>
+        <v>4.348201276493182</v>
       </c>
       <c r="E9" t="n">
-        <v>3.360221909873363</v>
+        <v>7.096587495301985</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -640,19 +640,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>21.44522622506259</v>
+        <v>81.38921835082252</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8398096201726295</v>
+        <v>4.551134177824939</v>
       </c>
       <c r="E10" t="n">
-        <v>2.719568976454646</v>
+        <v>6.624830961753963</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>168 horas à frente</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -661,19 +661,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>35.99746185177261</v>
+        <v>81.40562786874303</v>
       </c>
       <c r="D11" t="n">
-        <v>1.548472301502893</v>
+        <v>4.552712689211939</v>
       </c>
       <c r="E11" t="n">
-        <v>4.769103809708724</v>
+        <v>6.627076368932682</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>336 horas à frente</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -682,19 +682,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>37.6696227495044</v>
+        <v>81.40562786874303</v>
       </c>
       <c r="D12" t="n">
-        <v>1.638054810188435</v>
+        <v>4.552712689211939</v>
       </c>
       <c r="E12" t="n">
-        <v>5.033192284490213</v>
+        <v>6.627076368932682</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>720 horas à frente</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -703,19 +703,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>37.51132999249464</v>
+        <v>81.40562786874303</v>
       </c>
       <c r="D13" t="n">
-        <v>1.629495449185631</v>
+        <v>4.552712689211939</v>
       </c>
       <c r="E13" t="n">
-        <v>5.007932378498651</v>
+        <v>6.627076368932682</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1 dias à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -724,19 +724,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>24.62876475761799</v>
+        <v>78.37435399662414</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9626226893592676</v>
+        <v>4.431531905195863</v>
       </c>
       <c r="E14" t="n">
-        <v>2.416095257377245</v>
+        <v>6.68971383769026</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>7 dias à frente</t>
+          <t>168 horas à frente</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -745,19 +745,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>37.11477820167168</v>
+        <v>78.39883638364282</v>
       </c>
       <c r="D15" t="n">
-        <v>1.580750748043401</v>
+        <v>4.433851019968223</v>
       </c>
       <c r="E15" t="n">
-        <v>3.749364905373947</v>
+        <v>6.693136732930742</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>14 dias à frente</t>
+          <t>336 horas à frente</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -766,19 +766,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>38.67341598712986</v>
+        <v>78.39883638364282</v>
       </c>
       <c r="D16" t="n">
-        <v>1.664648960396209</v>
+        <v>4.433851019968223</v>
       </c>
       <c r="E16" t="n">
-        <v>3.934584174167966</v>
+        <v>6.693136732930742</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>30 dias à frente</t>
+          <t>720 horas à frente</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>38.50001357034161</v>
+        <v>78.39883638364282</v>
       </c>
       <c r="D17" t="n">
-        <v>1.655235103301646</v>
+        <v>4.433851019968223</v>
       </c>
       <c r="E17" t="n">
-        <v>3.913777931690523</v>
+        <v>6.693136732930742</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_lstm.xlsx
+++ b/Modelos em Python/resultados_erros_lstm.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24 horas à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -472,19 +472,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>78.82477576642999</v>
+        <v>34.42347922070459</v>
       </c>
       <c r="D2" t="n">
-        <v>4.448745741650517</v>
+        <v>1.367073525003011</v>
       </c>
       <c r="E2" t="n">
-        <v>6.580250101169226</v>
+        <v>2.234759614231611</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>168 horas à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -493,19 +493,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>78.838764505471</v>
+        <v>69.39638191033769</v>
       </c>
       <c r="D3" t="n">
-        <v>4.450074203169642</v>
+        <v>3.618314504447248</v>
       </c>
       <c r="E3" t="n">
-        <v>6.582169690696537</v>
+        <v>5.38344168547785</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>336 horas à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -514,19 +514,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>78.838764505471</v>
+        <v>76.4557160784745</v>
       </c>
       <c r="D4" t="n">
-        <v>4.450074203169642</v>
+        <v>4.228118020729828</v>
       </c>
       <c r="E4" t="n">
-        <v>6.582169690696537</v>
+        <v>6.261620814030689</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>720 horas à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -535,19 +535,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>78.838764505471</v>
+        <v>82.75895070069006</v>
       </c>
       <c r="D5" t="n">
-        <v>4.450074203169642</v>
+        <v>4.83489431774937</v>
       </c>
       <c r="E5" t="n">
-        <v>6.582169690696537</v>
+        <v>7.13871990230167</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>24 horas à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -556,19 +556,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>76.15150928182372</v>
+        <v>15.77167534676587</v>
       </c>
       <c r="D6" t="n">
-        <v>4.345935606459871</v>
+        <v>0.538506604145751</v>
       </c>
       <c r="E6" t="n">
-        <v>7.092963188650751</v>
+        <v>1.019211205829506</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>168 horas à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>76.17570898651407</v>
+        <v>62.17863291004566</v>
       </c>
       <c r="D7" t="n">
-        <v>4.348201276493182</v>
+        <v>3.170973000234811</v>
       </c>
       <c r="E7" t="n">
-        <v>7.096587495301985</v>
+        <v>5.220349971974787</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>336 horas à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -598,19 +598,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>76.17570898651407</v>
+        <v>72.55456188710896</v>
       </c>
       <c r="D8" t="n">
-        <v>4.348201276493182</v>
+        <v>4.018791160532247</v>
       </c>
       <c r="E8" t="n">
-        <v>7.096587495301985</v>
+        <v>6.57012820325652</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>720 horas à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -619,19 +619,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>76.17570898651407</v>
+        <v>79.59440976712237</v>
       </c>
       <c r="D9" t="n">
-        <v>4.348201276493182</v>
+        <v>4.67747801156785</v>
       </c>
       <c r="E9" t="n">
-        <v>7.096587495301985</v>
+        <v>7.623756283806484</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>24 horas à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -640,19 +640,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>81.38921835082252</v>
+        <v>28.46514503067898</v>
       </c>
       <c r="D10" t="n">
-        <v>4.551134177824939</v>
+        <v>1.037010815986263</v>
       </c>
       <c r="E10" t="n">
-        <v>6.624830961753963</v>
+        <v>1.796308728479497</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>168 horas à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -661,19 +661,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>81.40562786874303</v>
+        <v>70.92845691080811</v>
       </c>
       <c r="D11" t="n">
-        <v>4.552712689211939</v>
+        <v>3.626852994736875</v>
       </c>
       <c r="E11" t="n">
-        <v>6.627076368932682</v>
+        <v>5.313915841075464</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>336 horas à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -682,19 +682,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>81.40562786874303</v>
+        <v>78.69064621291805</v>
       </c>
       <c r="D12" t="n">
-        <v>4.552712689211939</v>
+        <v>4.297402719065358</v>
       </c>
       <c r="E12" t="n">
-        <v>6.627076368932682</v>
+        <v>6.264212132703719</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>720 horas à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -703,19 +703,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>81.40562786874303</v>
+        <v>85.10558681985239</v>
       </c>
       <c r="D13" t="n">
-        <v>4.552712689211939</v>
+        <v>4.920216936410032</v>
       </c>
       <c r="E13" t="n">
-        <v>6.627076368932682</v>
+        <v>7.150363737855833</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>24 horas à frente</t>
+          <t>1 horas à frente</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -724,19 +724,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>78.37435399662414</v>
+        <v>17.26833090835132</v>
       </c>
       <c r="D14" t="n">
-        <v>4.431531905195863</v>
+        <v>0.5740696534203171</v>
       </c>
       <c r="E14" t="n">
-        <v>6.68971383769026</v>
+        <v>1.013774166142857</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>168 horas à frente</t>
+          <t>6 horas à frente</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -745,19 +745,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>78.39883638364282</v>
+        <v>64.29742208246296</v>
       </c>
       <c r="D15" t="n">
-        <v>4.433851019968223</v>
+        <v>3.237164712220264</v>
       </c>
       <c r="E15" t="n">
-        <v>6.693136732930742</v>
+        <v>4.934235138282238</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>336 horas à frente</t>
+          <t>12 horas à frente</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -766,19 +766,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>78.39883638364282</v>
+        <v>74.76153435430484</v>
       </c>
       <c r="D16" t="n">
-        <v>4.433851019968223</v>
+        <v>4.099295575050523</v>
       </c>
       <c r="E16" t="n">
-        <v>6.693136732930742</v>
+        <v>6.199838059445161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>720 horas à frente</t>
+          <t>24 horas à frente</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>78.39883638364282</v>
+        <v>81.75007785272217</v>
       </c>
       <c r="D17" t="n">
-        <v>4.433851019968223</v>
+        <v>4.760391192238375</v>
       </c>
       <c r="E17" t="n">
-        <v>6.693136732930742</v>
+        <v>7.175454430438832</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_lstm.xlsx
+++ b/Modelos em Python/resultados_erros_lstm.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35.70215305331145</v>
+        <v>35.7278821719562</v>
       </c>
       <c r="D2" t="n">
-        <v>1.432417519296426</v>
+        <v>1.433745790508345</v>
       </c>
       <c r="E2" t="n">
-        <v>2.320632181826565</v>
+        <v>2.322418194876669</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>69.35591060093419</v>
+        <v>73.01568656340919</v>
       </c>
       <c r="D3" t="n">
-        <v>3.61501530148742</v>
+        <v>3.922478446529634</v>
       </c>
       <c r="E3" t="n">
-        <v>5.378735258506921</v>
+        <v>5.821030742777532</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>77.38995474419849</v>
+        <v>82.03454334027488</v>
       </c>
       <c r="D4" t="n">
-        <v>4.314107814924453</v>
+        <v>4.761876295518496</v>
       </c>
       <c r="E4" t="n">
-        <v>6.385780116690907</v>
+        <v>7.033102932882489</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>83.53820489938123</v>
+        <v>87.66903124872005</v>
       </c>
       <c r="D5" t="n">
-        <v>4.914493353298573</v>
+        <v>5.354925816776166</v>
       </c>
       <c r="E5" t="n">
-        <v>7.253985437936489</v>
+        <v>7.892264130611488</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15.75665078493015</v>
+        <v>15.5661039851481</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5379883968514908</v>
+        <v>0.5314107117531348</v>
       </c>
       <c r="E6" t="n">
-        <v>1.0186837580102</v>
+        <v>1.012766984939161</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>62.04437492840017</v>
+        <v>64.78153237602098</v>
       </c>
       <c r="D7" t="n">
-        <v>3.16082213117479</v>
+        <v>3.37139762387839</v>
       </c>
       <c r="E7" t="n">
-        <v>5.204172477815847</v>
+        <v>5.538566844625024</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>73.29766508687484</v>
+        <v>78.02099750234393</v>
       </c>
       <c r="D8" t="n">
-        <v>4.08482626441633</v>
+        <v>4.523652657132333</v>
       </c>
       <c r="E8" t="n">
-        <v>6.675517207386589</v>
+        <v>7.377439508950386</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>80.49794973687654</v>
+        <v>84.67359626964817</v>
       </c>
       <c r="D9" t="n">
-        <v>4.767615076557683</v>
+        <v>5.202795214530109</v>
       </c>
       <c r="E9" t="n">
-        <v>7.768072568608993</v>
+        <v>8.465973973805648</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>29.7803614403252</v>
+        <v>29.88017069183295</v>
       </c>
       <c r="D10" t="n">
-        <v>1.097718770971504</v>
+        <v>1.102364113512595</v>
       </c>
       <c r="E10" t="n">
-        <v>1.869481040497254</v>
+        <v>1.875141372966307</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>70.83427064172797</v>
+        <v>74.19176508056412</v>
       </c>
       <c r="D11" t="n">
-        <v>3.619183586900496</v>
+        <v>3.898607821936905</v>
       </c>
       <c r="E11" t="n">
-        <v>5.302975144422847</v>
+        <v>5.698365223656108</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>79.5567191065457</v>
+        <v>84.15660287579814</v>
       </c>
       <c r="D12" t="n">
-        <v>4.37755836849547</v>
+        <v>4.82367563276839</v>
       </c>
       <c r="E12" t="n">
-        <v>6.377990810221077</v>
+        <v>7.012741710841164</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>85.91143468400718</v>
+        <v>89.97814250488449</v>
       </c>
       <c r="D13" t="n">
-        <v>5.003370112513601</v>
+        <v>5.441932123921329</v>
       </c>
       <c r="E13" t="n">
-        <v>7.268745100361056</v>
+        <v>7.894320726472146</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17.30032761276934</v>
+        <v>17.13000461663263</v>
       </c>
       <c r="D14" t="n">
-        <v>0.57512254180082</v>
+        <v>0.5694070865255882</v>
       </c>
       <c r="E14" t="n">
-        <v>1.015208964558389</v>
+        <v>1.010871517387211</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>64.16919462592311</v>
+        <v>66.82864719924979</v>
       </c>
       <c r="D15" t="n">
-        <v>3.227413726872117</v>
+        <v>3.433265939115076</v>
       </c>
       <c r="E15" t="n">
-        <v>4.919940346025743</v>
+        <v>5.22124334278397</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>75.48792183446145</v>
+        <v>80.15597875068744</v>
       </c>
       <c r="D16" t="n">
-        <v>4.164523469511878</v>
+        <v>4.60278692039068</v>
       </c>
       <c r="E16" t="n">
-        <v>6.295894295791556</v>
+        <v>6.942584506827998</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>82.64915654098675</v>
+        <v>86.77454265304301</v>
       </c>
       <c r="D17" t="n">
-        <v>4.851152433698382</v>
+        <v>5.286283291110083</v>
       </c>
       <c r="E17" t="n">
-        <v>7.309579433782405</v>
+        <v>7.953511050951879</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_lstm.xlsx
+++ b/Modelos em Python/resultados_erros_lstm.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35.7278821719562</v>
+        <v>36.79087446294746</v>
       </c>
       <c r="D2" t="n">
-        <v>1.433745790508345</v>
+        <v>1.488865842363128</v>
       </c>
       <c r="E2" t="n">
-        <v>2.322418194876669</v>
+        <v>2.395357986337655</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>73.01568656340919</v>
+        <v>70.95293562372184</v>
       </c>
       <c r="D3" t="n">
-        <v>3.922478446529634</v>
+        <v>3.747028610601116</v>
       </c>
       <c r="E3" t="n">
-        <v>5.821030742777532</v>
+        <v>5.568479084995174</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>82.03454334027488</v>
+        <v>77.17217178712194</v>
       </c>
       <c r="D4" t="n">
-        <v>4.761876295518496</v>
+        <v>4.293951037285574</v>
       </c>
       <c r="E4" t="n">
-        <v>7.033102932882489</v>
+        <v>6.356676110178411</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>87.66903124872005</v>
+        <v>79.36604457822297</v>
       </c>
       <c r="D5" t="n">
-        <v>5.354925816776166</v>
+        <v>4.500384963359387</v>
       </c>
       <c r="E5" t="n">
-        <v>7.892264130611488</v>
+        <v>6.654884031346554</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15.5661039851481</v>
+        <v>15.71644255205608</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5314107117531348</v>
+        <v>0.5366026754158859</v>
       </c>
       <c r="E6" t="n">
-        <v>1.012766984939161</v>
+        <v>1.017387976555359</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>64.78153237602098</v>
+        <v>63.84564181348087</v>
       </c>
       <c r="D7" t="n">
-        <v>3.37139762387839</v>
+        <v>3.298439471139322</v>
       </c>
       <c r="E7" t="n">
-        <v>5.538566844625024</v>
+        <v>5.422607502108934</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>78.02099750234393</v>
+        <v>73.64352968407347</v>
       </c>
       <c r="D8" t="n">
-        <v>4.523652657132333</v>
+        <v>4.115861399615471</v>
       </c>
       <c r="E8" t="n">
-        <v>7.377439508950386</v>
+        <v>6.725155458315516</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>84.67359626964817</v>
+        <v>76.62340157906436</v>
       </c>
       <c r="D9" t="n">
-        <v>5.202795214530109</v>
+        <v>4.390292691837501</v>
       </c>
       <c r="E9" t="n">
-        <v>8.465973973805648</v>
+        <v>7.163955118000909</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>29.88017069183295</v>
+        <v>30.59261209889188</v>
       </c>
       <c r="D10" t="n">
-        <v>1.102364113512595</v>
+        <v>1.135687018918155</v>
       </c>
       <c r="E10" t="n">
-        <v>1.875141372966307</v>
+        <v>1.915872259377319</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>74.19176508056412</v>
+        <v>72.48988825521259</v>
       </c>
       <c r="D11" t="n">
-        <v>3.898607821936905</v>
+        <v>3.75513284030468</v>
       </c>
       <c r="E11" t="n">
-        <v>5.698365223656108</v>
+        <v>5.49524304141307</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>84.15660287579814</v>
+        <v>79.52380189638704</v>
       </c>
       <c r="D12" t="n">
-        <v>4.82367563276839</v>
+        <v>4.374503679485453</v>
       </c>
       <c r="E12" t="n">
-        <v>7.012741710841164</v>
+        <v>6.373682671374019</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>89.97814250488449</v>
+        <v>81.90147816908245</v>
       </c>
       <c r="D13" t="n">
-        <v>5.441932123921329</v>
+        <v>4.600618988457768</v>
       </c>
       <c r="E13" t="n">
-        <v>7.894320726472146</v>
+        <v>6.695221124755965</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17.13000461663263</v>
+        <v>17.28487813383858</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5694070865255882</v>
+        <v>0.5745954062279849</v>
       </c>
       <c r="E14" t="n">
-        <v>1.010871517387211</v>
+        <v>1.015056925045376</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>66.82864719924979</v>
+        <v>65.95541189008235</v>
       </c>
       <c r="D15" t="n">
-        <v>3.433265939115076</v>
+        <v>3.364756815803063</v>
       </c>
       <c r="E15" t="n">
-        <v>5.22124334278397</v>
+        <v>5.120860439295867</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>80.15597875068744</v>
+        <v>75.85272606335514</v>
       </c>
       <c r="D16" t="n">
-        <v>4.60278692039068</v>
+        <v>4.197595616499184</v>
       </c>
       <c r="E16" t="n">
-        <v>6.942584506827998</v>
+        <v>6.344674420897738</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>86.77454265304301</v>
+        <v>78.83672343475268</v>
       </c>
       <c r="D17" t="n">
-        <v>5.286283291110083</v>
+        <v>4.475495985845305</v>
       </c>
       <c r="E17" t="n">
-        <v>7.953511050951879</v>
+        <v>6.754617801377627</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_lstm.xlsx
+++ b/Modelos em Python/resultados_erros_lstm.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36.79087446294746</v>
+        <v>35.74207093426751</v>
       </c>
       <c r="D2" t="n">
-        <v>1.488865842363128</v>
+        <v>1.43447282021623</v>
       </c>
       <c r="E2" t="n">
-        <v>2.395357986337655</v>
+        <v>2.323344885098487</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>70.95293562372184</v>
+        <v>69.53395575056987</v>
       </c>
       <c r="D3" t="n">
-        <v>3.747028610601116</v>
+        <v>3.629573558836483</v>
       </c>
       <c r="E3" t="n">
-        <v>5.568479084995174</v>
+        <v>5.399663527850711</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>77.17217178712194</v>
+        <v>75.95424779982574</v>
       </c>
       <c r="D4" t="n">
-        <v>4.293951037285574</v>
+        <v>4.182511309841386</v>
       </c>
       <c r="E4" t="n">
-        <v>6.356676110178411</v>
+        <v>6.195857121386135</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>79.36604457822297</v>
+        <v>78.74299863719227</v>
       </c>
       <c r="D5" t="n">
-        <v>4.500384963359387</v>
+        <v>4.440996269297949</v>
       </c>
       <c r="E5" t="n">
-        <v>6.654884031346554</v>
+        <v>6.569078421805584</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15.71644255205608</v>
+        <v>15.6216538416968</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5366026754158859</v>
+        <v>0.5333303254503747</v>
       </c>
       <c r="E6" t="n">
-        <v>1.017387976555359</v>
+        <v>1.014399807198269</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>63.84564181348087</v>
+        <v>62.35142167399389</v>
       </c>
       <c r="D7" t="n">
-        <v>3.298439471139322</v>
+        <v>3.184034315776027</v>
       </c>
       <c r="E7" t="n">
-        <v>5.422607502108934</v>
+        <v>5.24104071582413</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>73.64352968407347</v>
+        <v>72.34557177747867</v>
       </c>
       <c r="D8" t="n">
-        <v>4.115861399615471</v>
+        <v>4.000339826601913</v>
       </c>
       <c r="E8" t="n">
-        <v>6.725155458315516</v>
+        <v>6.540637696450315</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>76.62340157906436</v>
+        <v>75.92182126388852</v>
       </c>
       <c r="D9" t="n">
-        <v>4.390292691837501</v>
+        <v>4.324488175137541</v>
       </c>
       <c r="E9" t="n">
-        <v>7.163955118000909</v>
+        <v>7.058692851631474</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>30.59261209889188</v>
+        <v>29.93633699771588</v>
       </c>
       <c r="D10" t="n">
-        <v>1.135687018918155</v>
+        <v>1.104981346709651</v>
       </c>
       <c r="E10" t="n">
-        <v>1.915872259377319</v>
+        <v>1.87832862259029</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>72.48988825521259</v>
+        <v>71.0688183479386</v>
       </c>
       <c r="D11" t="n">
-        <v>3.75513284030468</v>
+        <v>3.638238223873252</v>
       </c>
       <c r="E11" t="n">
-        <v>5.49524304141307</v>
+        <v>5.329942588450601</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>79.52380189638704</v>
+        <v>78.2982680811472</v>
       </c>
       <c r="D12" t="n">
-        <v>4.374503679485453</v>
+        <v>4.261419635960096</v>
       </c>
       <c r="E12" t="n">
-        <v>6.373682671374019</v>
+        <v>6.213037159755331</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>81.90147816908245</v>
+        <v>81.26307061432787</v>
       </c>
       <c r="D13" t="n">
-        <v>4.600618988457768</v>
+        <v>4.539015234901718</v>
       </c>
       <c r="E13" t="n">
-        <v>6.695221124755965</v>
+        <v>6.607594350491413</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17.28487813383858</v>
+        <v>17.18858352815261</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5745954062279849</v>
+        <v>0.5713703008278254</v>
       </c>
       <c r="E14" t="n">
-        <v>1.015056925045376</v>
+        <v>1.012406477089219</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>65.95541189008235</v>
+        <v>64.47389203166757</v>
       </c>
       <c r="D15" t="n">
-        <v>3.364756815803063</v>
+        <v>3.250595250387957</v>
       </c>
       <c r="E15" t="n">
-        <v>5.120860439295867</v>
+        <v>4.953862570147042</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>75.85272606335514</v>
+        <v>74.56720884206011</v>
       </c>
       <c r="D16" t="n">
-        <v>4.197595616499184</v>
+        <v>4.081968954791627</v>
       </c>
       <c r="E16" t="n">
-        <v>6.344674420897738</v>
+        <v>6.17431475442427</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>78.83672343475268</v>
+        <v>78.14052837925716</v>
       </c>
       <c r="D17" t="n">
-        <v>4.475495985845305</v>
+        <v>4.409442844918542</v>
       </c>
       <c r="E17" t="n">
-        <v>6.754617801377627</v>
+        <v>6.657137459598703</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_lstm.xlsx
+++ b/Modelos em Python/resultados_erros_lstm.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35.74207093426751</v>
+        <v>35.86478116486672</v>
       </c>
       <c r="D2" t="n">
-        <v>1.43447282021623</v>
+        <v>1.440801468877903</v>
       </c>
       <c r="E2" t="n">
-        <v>2.323344885098487</v>
+        <v>2.331697543662137</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>69.53395575056987</v>
+        <v>65.40767422902329</v>
       </c>
       <c r="D3" t="n">
-        <v>3.629573558836483</v>
+        <v>3.302153448468318</v>
       </c>
       <c r="E3" t="n">
-        <v>5.399663527850711</v>
+        <v>4.930056948954313</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>75.95424779982574</v>
+        <v>71.44383912882913</v>
       </c>
       <c r="D4" t="n">
-        <v>4.182511309841386</v>
+        <v>3.788264917849863</v>
       </c>
       <c r="E4" t="n">
-        <v>6.195857121386135</v>
+        <v>5.627799423789352</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>78.74299863719227</v>
+        <v>74.00603389908218</v>
       </c>
       <c r="D5" t="n">
-        <v>4.440996269297949</v>
+        <v>4.008744308347611</v>
       </c>
       <c r="E5" t="n">
-        <v>6.569078421805584</v>
+        <v>5.945275135297474</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15.6216538416968</v>
+        <v>15.63006414963839</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5333303254503747</v>
+        <v>0.5336213325374771</v>
       </c>
       <c r="E6" t="n">
-        <v>1.014399807198269</v>
+        <v>1.014669816934088</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>62.35142167399389</v>
+        <v>58.78890991943187</v>
       </c>
       <c r="D7" t="n">
-        <v>3.184034315776027</v>
+        <v>2.921071004919709</v>
       </c>
       <c r="E7" t="n">
-        <v>5.24104071582413</v>
+        <v>4.824603229451422</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>72.34557177747867</v>
+        <v>67.79513169616828</v>
       </c>
       <c r="D8" t="n">
-        <v>4.000339826601913</v>
+        <v>3.613307356664339</v>
       </c>
       <c r="E8" t="n">
-        <v>6.540637696450315</v>
+        <v>5.923362893250148</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>75.92182126388852</v>
+        <v>71.13111672710116</v>
       </c>
       <c r="D9" t="n">
-        <v>4.324488175137541</v>
+        <v>3.894356602234194</v>
       </c>
       <c r="E9" t="n">
-        <v>7.058692851631474</v>
+        <v>6.371423560561456</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>29.93633699771588</v>
+        <v>30.30840478274837</v>
       </c>
       <c r="D10" t="n">
-        <v>1.104981346709651</v>
+        <v>1.12236172541569</v>
       </c>
       <c r="E10" t="n">
-        <v>1.87832862259029</v>
+        <v>1.899576878682017</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>71.0688183479386</v>
+        <v>67.13027797847523</v>
       </c>
       <c r="D11" t="n">
-        <v>3.638238223873252</v>
+        <v>3.32739804892262</v>
       </c>
       <c r="E11" t="n">
-        <v>5.329942588450601</v>
+        <v>4.891366545990034</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>78.2982680811472</v>
+        <v>73.84889649400479</v>
       </c>
       <c r="D12" t="n">
-        <v>4.261419635960096</v>
+        <v>3.869414476389988</v>
       </c>
       <c r="E12" t="n">
-        <v>6.213037159755331</v>
+        <v>5.657087747166833</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>81.26307061432787</v>
+        <v>76.58806803282987</v>
       </c>
       <c r="D13" t="n">
-        <v>4.539015234901718</v>
+        <v>4.107400728059311</v>
       </c>
       <c r="E13" t="n">
-        <v>6.607594350491413</v>
+        <v>5.99445619419092</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17.18858352815261</v>
+        <v>17.21172237740344</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5713703008278254</v>
+        <v>0.5721404045673963</v>
       </c>
       <c r="E14" t="n">
-        <v>1.012406477089219</v>
+        <v>1.01320142426325</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>64.47389203166757</v>
+        <v>60.98546069102427</v>
       </c>
       <c r="D15" t="n">
-        <v>3.250595250387957</v>
+        <v>2.9914174279575</v>
       </c>
       <c r="E15" t="n">
-        <v>4.953862570147042</v>
+        <v>4.575615634645157</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>74.56720884206011</v>
+        <v>70.06705555537329</v>
       </c>
       <c r="D16" t="n">
-        <v>4.081968954791627</v>
+        <v>3.695268306016732</v>
       </c>
       <c r="E16" t="n">
-        <v>6.17431475442427</v>
+        <v>5.605508291110394</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>78.14052837925716</v>
+        <v>73.40435312472719</v>
       </c>
       <c r="D17" t="n">
-        <v>4.409442844918542</v>
+        <v>3.979401106915236</v>
       </c>
       <c r="E17" t="n">
-        <v>6.657137459598703</v>
+        <v>6.023293195644247</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_lstm.xlsx
+++ b/Modelos em Python/resultados_erros_lstm.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35.86478116486672</v>
+        <v>34.96089532556886</v>
       </c>
       <c r="D2" t="n">
-        <v>1.440801468877903</v>
+        <v>1.394414272027214</v>
       </c>
       <c r="E2" t="n">
-        <v>2.331697543662137</v>
+        <v>2.270622963979038</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>65.40767422902329</v>
+        <v>58.44435548279107</v>
       </c>
       <c r="D3" t="n">
-        <v>3.302153448468318</v>
+        <v>2.793081991359306</v>
       </c>
       <c r="E3" t="n">
-        <v>4.930056948954313</v>
+        <v>4.204009020970871</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>71.44383912882913</v>
+        <v>63.03298245074783</v>
       </c>
       <c r="D4" t="n">
-        <v>3.788264917849863</v>
+        <v>3.122705192813521</v>
       </c>
       <c r="E4" t="n">
-        <v>5.627799423789352</v>
+        <v>4.673476611203965</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>74.00603389908218</v>
+        <v>65.62245721606737</v>
       </c>
       <c r="D5" t="n">
-        <v>4.008744308347611</v>
+        <v>3.31870112618256</v>
       </c>
       <c r="E5" t="n">
-        <v>5.945275135297474</v>
+        <v>4.95375617908124</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15.63006414963839</v>
+        <v>15.59208168952613</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5336213325374771</v>
+        <v>0.5323088060138297</v>
       </c>
       <c r="E6" t="n">
-        <v>1.014669816934088</v>
+        <v>1.01351751808325</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>58.78890991943187</v>
+        <v>52.85719144235086</v>
       </c>
       <c r="D7" t="n">
-        <v>2.921071004919709</v>
+        <v>2.511586286948166</v>
       </c>
       <c r="E7" t="n">
-        <v>4.824603229451422</v>
+        <v>4.179575308575443</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>67.79513169616828</v>
+        <v>59.41835719859795</v>
       </c>
       <c r="D8" t="n">
-        <v>3.613307356664339</v>
+        <v>2.966556944263419</v>
       </c>
       <c r="E8" t="n">
-        <v>5.923362893250148</v>
+        <v>4.896520444694768</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>71.13111672710116</v>
+        <v>62.61527973912253</v>
       </c>
       <c r="D9" t="n">
-        <v>3.894356602234194</v>
+        <v>3.204045165360643</v>
       </c>
       <c r="E9" t="n">
-        <v>6.371423560561456</v>
+        <v>5.27274591484187</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>30.30840478274837</v>
+        <v>29.88184332984052</v>
       </c>
       <c r="D10" t="n">
-        <v>1.12236172541569</v>
+        <v>1.102441582152953</v>
       </c>
       <c r="E10" t="n">
-        <v>1.899576878682017</v>
+        <v>1.875232491232524</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>67.13027797847523</v>
+        <v>60.53394212409346</v>
       </c>
       <c r="D11" t="n">
-        <v>3.32739804892262</v>
+        <v>2.846253468851338</v>
       </c>
       <c r="E11" t="n">
-        <v>4.891366545990034</v>
+        <v>4.215947508358616</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>73.84889649400479</v>
+        <v>65.56836434052003</v>
       </c>
       <c r="D12" t="n">
-        <v>3.869414476389988</v>
+        <v>3.2091680215516</v>
       </c>
       <c r="E12" t="n">
-        <v>5.657087747166833</v>
+        <v>4.724890506194531</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>76.58806803282987</v>
+        <v>68.29596425309181</v>
       </c>
       <c r="D13" t="n">
-        <v>4.107400728059311</v>
+        <v>3.417435214026724</v>
       </c>
       <c r="E13" t="n">
-        <v>5.99445619419092</v>
+        <v>5.018191915589147</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17.21172237740344</v>
+        <v>17.148729512519</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5721404045673963</v>
+        <v>0.5700380526140337</v>
       </c>
       <c r="E14" t="n">
-        <v>1.01320142426325</v>
+        <v>1.011260930385561</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>60.98546069102427</v>
+        <v>55.16973636937252</v>
       </c>
       <c r="D15" t="n">
-        <v>2.9914174279575</v>
+        <v>2.587209955543269</v>
       </c>
       <c r="E15" t="n">
-        <v>4.575615634645157</v>
+        <v>3.98903567738285</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>70.06705555537329</v>
+        <v>61.78308959892078</v>
       </c>
       <c r="D16" t="n">
-        <v>3.695268306016732</v>
+        <v>3.049500215020902</v>
       </c>
       <c r="E16" t="n">
-        <v>5.605508291110394</v>
+        <v>4.660255892219387</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>73.40435312472719</v>
+        <v>64.97670096262026</v>
       </c>
       <c r="D17" t="n">
-        <v>3.979401106915236</v>
+        <v>3.289032167358875</v>
       </c>
       <c r="E17" t="n">
-        <v>6.023293195644247</v>
+        <v>5.010054174269111</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_lstm.xlsx
+++ b/Modelos em Python/resultados_erros_lstm.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24.60254188733614</v>
+        <v>24.57675723387774</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9309467538747795</v>
+        <v>0.9280556448918675</v>
       </c>
       <c r="E2" t="n">
-        <v>1.36390884263904</v>
+        <v>1.360583230314488</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>58.21313883411175</v>
+        <v>58.99885863360031</v>
       </c>
       <c r="D3" t="n">
-        <v>2.772484257197652</v>
+        <v>2.826263792184096</v>
       </c>
       <c r="E3" t="n">
-        <v>4.154008242827323</v>
+        <v>4.226201169820202</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>60.05532404034854</v>
+        <v>62.85202392530025</v>
       </c>
       <c r="D4" t="n">
-        <v>2.906150023031128</v>
+        <v>3.10763533599295</v>
       </c>
       <c r="E4" t="n">
-        <v>4.36400000853518</v>
+        <v>4.645360684602584</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>60.10451074850045</v>
+        <v>67.76786828761637</v>
       </c>
       <c r="D5" t="n">
-        <v>2.909830452293413</v>
+        <v>3.485301359564589</v>
       </c>
       <c r="E5" t="n">
-        <v>4.369983837058701</v>
+        <v>5.187072070732809</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23.63496878850264</v>
+        <v>23.56403777700401</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9239408406713332</v>
+        <v>0.9193928993562339</v>
       </c>
       <c r="E6" t="n">
-        <v>1.49611359052057</v>
+        <v>1.489659916769473</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>55.40705648459896</v>
+        <v>56.22879705034472</v>
       </c>
       <c r="D7" t="n">
-        <v>2.680017794212597</v>
+        <v>2.735980142527985</v>
       </c>
       <c r="E7" t="n">
-        <v>4.425598661409191</v>
+        <v>4.509816440116129</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>57.15316841218513</v>
+        <v>60.01701406616016</v>
       </c>
       <c r="D8" t="n">
-        <v>2.804609277197588</v>
+        <v>3.008930829250701</v>
       </c>
       <c r="E8" t="n">
-        <v>4.640030146921094</v>
+        <v>4.957418732083681</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>57.19874433574135</v>
+        <v>64.98801247239285</v>
       </c>
       <c r="D9" t="n">
-        <v>2.807951620045964</v>
+        <v>3.386357594867476</v>
       </c>
       <c r="E9" t="n">
-        <v>4.645977246427446</v>
+        <v>5.55720890139755</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>25.54922416553845</v>
+        <v>25.5601276791697</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9415915537210955</v>
+        <v>0.9401985434576098</v>
       </c>
       <c r="E10" t="n">
-        <v>1.357401265442875</v>
+        <v>1.356233812872704</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>60.89997699592487</v>
+        <v>61.64880748211634</v>
       </c>
       <c r="D11" t="n">
-        <v>2.866737906027948</v>
+        <v>2.918302495674945</v>
       </c>
       <c r="E11" t="n">
-        <v>4.223661562268471</v>
+        <v>4.291693221276912</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>62.8317818955304</v>
+        <v>65.56275121592027</v>
       </c>
       <c r="D12" t="n">
-        <v>3.008387088095272</v>
+        <v>3.206985001752583</v>
       </c>
       <c r="E12" t="n">
-        <v>4.442226690466097</v>
+        <v>4.715354252914675</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>62.88434732546692</v>
+        <v>70.43151259282374</v>
       </c>
       <c r="D13" t="n">
-        <v>3.012364590940697</v>
+        <v>3.584911833283758</v>
       </c>
       <c r="E13" t="n">
-        <v>4.448557344247582</v>
+        <v>5.249199959984766</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>24.44477906383841</v>
+        <v>24.41058565105434</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9303350432348256</v>
+        <v>0.9271565738190746</v>
       </c>
       <c r="E14" t="n">
-        <v>1.391571092516586</v>
+        <v>1.387721411716319</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>57.74739513650704</v>
+        <v>58.53875766054997</v>
       </c>
       <c r="D15" t="n">
-        <v>2.757937287286922</v>
+        <v>2.812061634384569</v>
       </c>
       <c r="E15" t="n">
-        <v>4.215931490907465</v>
+        <v>4.290355116569301</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>59.57330252261248</v>
+        <v>62.38094569704582</v>
       </c>
       <c r="D16" t="n">
-        <v>2.889998203535737</v>
+        <v>3.091930230605985</v>
       </c>
       <c r="E16" t="n">
-        <v>4.427321956768384</v>
+        <v>4.715661465321454</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>59.62187891836308</v>
+        <v>67.30674612363981</v>
       </c>
       <c r="D17" t="n">
-        <v>2.893618788101156</v>
+        <v>3.469560982871853</v>
       </c>
       <c r="E17" t="n">
-        <v>4.433317411228482</v>
+        <v>5.269008189797872</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_lstm.xlsx
+++ b/Modelos em Python/resultados_erros_lstm.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24.57675723387774</v>
+        <v>23.92877083400927</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9280556448918675</v>
+        <v>0.8967460219137434</v>
       </c>
       <c r="E2" t="n">
-        <v>1.360583230314488</v>
+        <v>1.316865627420871</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>58.99885863360031</v>
+        <v>57.62777006010297</v>
       </c>
       <c r="D3" t="n">
-        <v>2.826263792184096</v>
+        <v>2.731660093105281</v>
       </c>
       <c r="E3" t="n">
-        <v>4.226201169820202</v>
+        <v>4.093230867626795</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>62.85202392530025</v>
+        <v>60.45266082818863</v>
       </c>
       <c r="D4" t="n">
-        <v>3.10763533599295</v>
+        <v>2.933875644609144</v>
       </c>
       <c r="E4" t="n">
-        <v>4.645360684602584</v>
+        <v>4.40081201912182</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>67.76786828761637</v>
+        <v>63.12759907564752</v>
       </c>
       <c r="D5" t="n">
-        <v>3.485301359564589</v>
+        <v>3.128694965670024</v>
       </c>
       <c r="E5" t="n">
-        <v>5.187072070732809</v>
+        <v>4.677914347815457</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23.56403777700401</v>
+        <v>22.85704809201715</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9193928993562339</v>
+        <v>0.8853867894936043</v>
       </c>
       <c r="E6" t="n">
-        <v>1.489659916769473</v>
+        <v>1.436715172555259</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>56.22879705034472</v>
+        <v>54.83200826339394</v>
       </c>
       <c r="D7" t="n">
-        <v>2.735980142527985</v>
+        <v>2.640378925166294</v>
       </c>
       <c r="E7" t="n">
-        <v>4.509816440116129</v>
+        <v>4.36053028957696</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>60.01701406616016</v>
+        <v>57.57015973222747</v>
       </c>
       <c r="D8" t="n">
-        <v>3.008930829250701</v>
+        <v>2.833536258992392</v>
       </c>
       <c r="E8" t="n">
-        <v>4.957418732083681</v>
+        <v>4.683182222876602</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>64.98801247239285</v>
+        <v>60.28140943686978</v>
       </c>
       <c r="D9" t="n">
-        <v>3.386357594867476</v>
+        <v>3.028796835262693</v>
       </c>
       <c r="E9" t="n">
-        <v>5.55720890139755</v>
+        <v>4.991175586613265</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>25.5601276791697</v>
+        <v>24.95992319343633</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9401985434576098</v>
+        <v>0.9113380663063494</v>
       </c>
       <c r="E10" t="n">
-        <v>1.356233812872704</v>
+        <v>1.316643335192501</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>61.64880748211634</v>
+        <v>60.30252611397275</v>
       </c>
       <c r="D11" t="n">
-        <v>2.918302495674945</v>
+        <v>2.824715505169209</v>
       </c>
       <c r="E11" t="n">
-        <v>4.291693221276912</v>
+        <v>4.162112502866089</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>65.56275121592027</v>
+        <v>63.20885181558194</v>
       </c>
       <c r="D12" t="n">
-        <v>3.206985001752583</v>
+        <v>3.03489200980431</v>
       </c>
       <c r="E12" t="n">
-        <v>4.715354252914675</v>
+        <v>4.476793293365657</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>70.43151259282374</v>
+        <v>65.85066584101807</v>
       </c>
       <c r="D13" t="n">
-        <v>3.584911833283758</v>
+        <v>3.22922457562045</v>
       </c>
       <c r="E13" t="n">
-        <v>5.249199959984766</v>
+        <v>4.749089354607936</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>24.41058565105434</v>
+        <v>23.75158615678898</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9271565738190746</v>
+        <v>0.895380811976483</v>
       </c>
       <c r="E14" t="n">
-        <v>1.387721411716319</v>
+        <v>1.342325860722418</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>58.53875766054997</v>
+        <v>57.16343133792498</v>
       </c>
       <c r="D15" t="n">
-        <v>2.812061634384569</v>
+        <v>2.717300992015562</v>
       </c>
       <c r="E15" t="n">
-        <v>4.290355116569301</v>
+        <v>4.154200166862</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>62.38094569704582</v>
+        <v>59.97369885079686</v>
       </c>
       <c r="D16" t="n">
-        <v>3.091930230605985</v>
+        <v>2.917913368277294</v>
       </c>
       <c r="E16" t="n">
-        <v>4.715661465321454</v>
+        <v>4.465305992851509</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>67.30674612363981</v>
+        <v>62.65489412315844</v>
       </c>
       <c r="D17" t="n">
-        <v>3.469560982871853</v>
+        <v>3.112796932326211</v>
       </c>
       <c r="E17" t="n">
-        <v>5.269008189797872</v>
+        <v>4.748547134820675</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/resultados_erros_lstm.xlsx
+++ b/Modelos em Python/resultados_erros_lstm.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23.92877083400927</v>
+        <v>23.38835098747538</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8967460219137434</v>
+        <v>0.8722542591948826</v>
       </c>
       <c r="E2" t="n">
-        <v>1.316865627420871</v>
+        <v>1.282269517629253</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>57.62777006010297</v>
+        <v>56.65777005970115</v>
       </c>
       <c r="D3" t="n">
-        <v>2.731660093105281</v>
+        <v>2.665814550826611</v>
       </c>
       <c r="E3" t="n">
-        <v>4.093230867626795</v>
+        <v>4.000856501685975</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>60.45266082818863</v>
+        <v>58.76465561866756</v>
       </c>
       <c r="D4" t="n">
-        <v>2.933875644609144</v>
+        <v>2.815164291969232</v>
       </c>
       <c r="E4" t="n">
-        <v>4.40081201912182</v>
+        <v>4.234394540557403</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>63.12759907564752</v>
+        <v>58.84557989275984</v>
       </c>
       <c r="D5" t="n">
-        <v>3.128694965670024</v>
+        <v>2.821043167431841</v>
       </c>
       <c r="E5" t="n">
-        <v>4.677914347815457</v>
+        <v>4.243724252321346</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22.85704809201715</v>
+        <v>22.30258925419826</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8853867894936043</v>
+        <v>0.8598711378270055</v>
       </c>
       <c r="E6" t="n">
-        <v>1.436715172555259</v>
+        <v>1.396735944284242</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>54.83200826339394</v>
+        <v>53.84416289457553</v>
       </c>
       <c r="D7" t="n">
-        <v>2.640378925166294</v>
+        <v>2.573863027201013</v>
       </c>
       <c r="E7" t="n">
-        <v>4.36053028957696</v>
+        <v>4.256845125688991</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>57.57015973222747</v>
+        <v>55.84890484596261</v>
       </c>
       <c r="D8" t="n">
-        <v>2.833536258992392</v>
+        <v>2.713717922763904</v>
       </c>
       <c r="E8" t="n">
-        <v>4.683182222876602</v>
+        <v>4.496512744209008</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>60.28140943686978</v>
+        <v>55.92532321540457</v>
       </c>
       <c r="D9" t="n">
-        <v>3.028796835262693</v>
+        <v>2.719167031227284</v>
       </c>
       <c r="E9" t="n">
-        <v>4.991175586613265</v>
+        <v>4.505982851628292</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>24.95992319343633</v>
+        <v>24.43583151199413</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9113380663063494</v>
+        <v>0.8880187484423967</v>
       </c>
       <c r="E10" t="n">
-        <v>1.316643335192501</v>
+        <v>1.284183739882384</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>60.30252611397275</v>
+        <v>59.34972818430971</v>
       </c>
       <c r="D11" t="n">
-        <v>2.824715505169209</v>
+        <v>2.759553758164012</v>
       </c>
       <c r="E11" t="n">
-        <v>4.162112502866089</v>
+        <v>4.072045897630004</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>63.20885181558194</v>
+        <v>61.55274179065704</v>
       </c>
       <c r="D12" t="n">
-        <v>3.03489200980431</v>
+        <v>2.917314824793614</v>
       </c>
       <c r="E12" t="n">
-        <v>4.476793293365657</v>
+        <v>4.314403456790038</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>65.85066584101807</v>
+        <v>61.63794211674993</v>
       </c>
       <c r="D13" t="n">
-        <v>3.22922457562045</v>
+        <v>2.923574681968238</v>
       </c>
       <c r="E13" t="n">
-        <v>4.749089354607936</v>
+        <v>4.324151465355181</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>23.75158615678898</v>
+        <v>23.20924017736813</v>
       </c>
       <c r="D14" t="n">
-        <v>0.895380811976483</v>
+        <v>0.8707459968473389</v>
       </c>
       <c r="E14" t="n">
-        <v>1.342325860722418</v>
+        <v>1.306764084906003</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>57.16343133792498</v>
+        <v>56.19048552477736</v>
       </c>
       <c r="D15" t="n">
-        <v>2.717300992015562</v>
+        <v>2.651350055535816</v>
       </c>
       <c r="E15" t="n">
-        <v>4.154200166862</v>
+        <v>4.059615282252433</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>59.97369885079686</v>
+        <v>58.28018315859478</v>
       </c>
       <c r="D16" t="n">
-        <v>2.917913368277294</v>
+        <v>2.799028673525502</v>
       </c>
       <c r="E16" t="n">
-        <v>4.465305992851509</v>
+        <v>4.294924318746209</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>62.65489412315844</v>
+        <v>58.36035418653269</v>
       </c>
       <c r="D17" t="n">
-        <v>3.112796932326211</v>
+        <v>2.804831944777669</v>
       </c>
       <c r="E17" t="n">
-        <v>4.748547134820675</v>
+        <v>4.304306853219434</v>
       </c>
     </row>
   </sheetData>
